--- a/AcademicSelf-Regulation/QuestionsText.xlsx
+++ b/AcademicSelf-Regulation/QuestionsText.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="213">
   <si>
     <t>GRE</t>
   </si>
@@ -53,21 +53,6 @@
     </r>
   </si>
   <si>
-    <t>GMATQ1</t>
-  </si>
-  <si>
-    <t>GMATQ2</t>
-  </si>
-  <si>
-    <t>GMATQ3</t>
-  </si>
-  <si>
-    <t>GMATQ4</t>
-  </si>
-  <si>
-    <t>GMATQ5</t>
-  </si>
-  <si>
     <t>(A) Until the ban, the city’s many homeless shelters were at less than fifty percent occupancy.</t>
   </si>
   <si>
@@ -115,13 +100,725 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <r>
+      <t>3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> A minor league baseball franchise experienced a drop in attendance this week after they suffered three losses by margins of ten runs or more last week.  Many spectators of those games wrote letters to the editors of the local sporting news, complaining of the poor play of the team in those three losses.  Nevertheless, the front office of this baseball franchise maintains that the team’s poor play in those three losses has nothing to do with this week’s decline in attendance.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> In a few recent cases, some teenagers with advanced programming abilities used a new programming language, FANTOD, to hack into ETS and change their own SAT scores.  All of the teenagers convicted of this crime were highly skilled in programming FANTOD.  In light of these cases, some colleges have discounted the official SAT scores of applicants with a knowledge of FANTOD, and have required them to take special admission tests in supervised conditions on their own campuses.</t>
+    </r>
+  </si>
+  <si>
+    <t>(E) This was the second such NFA program to aid barley growers; the first one, 14 years ago, was started with high hopes, but did little to change their situation.</t>
+  </si>
+  <si>
+    <t>(D) This program was implemented at a time when more than half of barley growers nationwide were reported barely breaking even in their yearly expenses.</t>
+  </si>
+  <si>
+    <t>(C) Some of the enzymes in the special mix multiply the growth of a bacteria that feeds on the young barley plants.</t>
+  </si>
+  <si>
+    <t>(B) The trucks that drove the special mix from the depot in Wisconsin to the individual farms sometime took as much as 4 or 5 days.</t>
+  </si>
+  <si>
+    <t>(A) During these two years, most of the barley growers reported using no other fertilizer besides the special mix sent by the government</t>
+  </si>
+  <si>
+    <t>(A) Art critics generally have a different appraisal of a work of art than does the general public.</t>
+  </si>
+  <si>
+    <t>(B) The meaning of any work of art is defined entirely by the ideas of the artist who created it.</t>
+  </si>
+  <si>
+    <t>(C) Beauty is a defining quality of art.</t>
+  </si>
+  <si>
+    <t>(E) Some colleges have not set any special requirements for applicants who have demonstrated knowledge of FANTOD</t>
+  </si>
+  <si>
+    <t>(D) All art movements of the latter half of the twentieth century are responses to the movements of the first half of the century.</t>
+  </si>
+  <si>
+    <t>(E) It is not possible for any work to be simultaneously beautiful and intellectually engaging.</t>
+  </si>
+  <si>
+    <t>(A) Most people who learn to program in FANTOD do so to commit some kind of hacking.</t>
+  </si>
+  <si>
+    <t>(B) Colleges should rely on their own admissions tests instead of the SATs</t>
+  </si>
+  <si>
+    <t>(C) Some students with knowledge of FANTOD are possibly placed at a disadvantage in the college admission process.</t>
+  </si>
+  <si>
+    <t>(D) Students who learn FANTOD tend to have much lower SAT scores than do their peers.</t>
+  </si>
+  <si>
+    <t>(A) The spectators who wrote letters to the local sporting news were long-standing fans of this minor league baseball team.</t>
+  </si>
+  <si>
+    <t>(B) Many minor league baseball franchises attribute a drop in attendance to the quality of play of the team only after a string of losses.</t>
+  </si>
+  <si>
+    <t>(C) Other minor league teams in that region of the state reported a similar drop in attendance this week.</t>
+  </si>
+  <si>
+    <t>(D) This was not the first time this team suffered multiple lopsided losses in a single week, prompting similar letters to the local sporting news.</t>
+  </si>
+  <si>
+    <t>(E) This minor league team is over four hours from the closest major league team, so many of the minor league team’s fans do not often attend major league games.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> In the twentieth century, the visual arts have embarked on major experimentation, from cubism to expressionism.  While tastes always vary, there are certainly some people who find beautiful objects of each of the art movements of the first half of the twentieth century.  In the latter half of the twentieth century, though, most works are so abstract or shocking that neither the critic nor the general public uses the word “beautiful” to describe them: indeed, sometimes late twentieth-century artists have, as one of their expressed goals, the creation of a work that no one could find beautiful.  Whatever these artists are creating may be intellectually engaging at some level, but it is no longer art.</t>
+    </r>
+  </si>
+  <si>
+    <t>(A) A nationwide survey found that doctors, especially experienced ones, are more prone to the belief that they could not possibly be carrying pathogens.</t>
+  </si>
+  <si>
+    <t>(B) It is reported that around 50,000 people die every year in our country from hospital acquired infections.</t>
+  </si>
+  <si>
+    <t>(C ) Compulsory hand cleansing is strictly adhered to by all doctors and nurses before every major surgical procedure.</t>
+  </si>
+  <si>
+    <t>(D) During a study, doctors handling newborn babies self reported a hand cleansing rate of 90℅.</t>
+  </si>
+  <si>
+    <t>(E ) Nurses are not any better than doctors in adhering to strict cleansing schedules, especially when busy.</t>
+  </si>
+  <si>
+    <t>(A) A number of differently-abled people chose not to work</t>
+  </si>
+  <si>
+    <t>(B)Not willing to deal with the issues of workplace discrimination of the differently-abled, several companies recruited fewer of them in the first place</t>
+  </si>
+  <si>
+    <t>(C)Knowing that the act was about to be enforced, companies terminated some of the differently-abled while they had a chance</t>
+  </si>
+  <si>
+    <t>(D)There was no act introduced that would guarantee a job for the differently-abled</t>
+  </si>
+  <si>
+    <t>(E)The unemployment among the able-bodied has remained consistently high</t>
+  </si>
+  <si>
+    <t>(A)Whether efforts have been successfully taken in any other country to regulate drug users.</t>
+  </si>
+  <si>
+    <t>(B)Whether the payoff from selling drugs outweighs the severity of the punishment</t>
+  </si>
+  <si>
+    <t>(C)Whether drugs will continue to be sold at a premium when there are dealers in the market again</t>
+  </si>
+  <si>
+    <t>(D)Whether the majority of the users will be willing to pay a premium to continue to use the drugs</t>
+  </si>
+  <si>
+    <t>(E)Whether the government will be able to keep track of new dealers as and when they enter the market</t>
+  </si>
+  <si>
+    <t>(A)Dylan changes the direction of the argument entirely by discussing the scenario in a different country</t>
+  </si>
+  <si>
+    <t>(B)Dylan partially agrees with Alan's reasoning but refutes his recommendation to the government</t>
+  </si>
+  <si>
+    <t>(C)Dylan converts a causal argument made by Alan into a generalization applicable universally</t>
+  </si>
+  <si>
+    <t>(D)Dylan challenges Alan's reasoning by explaining why two situations that Alan perceives as similar are not</t>
+  </si>
+  <si>
+    <t>(E)While Alan arrives at a conclusion by drawing an analogy, Dylan arrives at the same conclusion by refuting the analogy</t>
+  </si>
+  <si>
+    <t>(A)Of the remaining members, 60℅ or more tend to be born between the months of April and June.</t>
+  </si>
+  <si>
+    <t>(B)Parents of kids born in the second half of the year have displayed a measurable intent to promote scholarly careers</t>
+  </si>
+  <si>
+    <t>(C)The age cut-off for kids to try out for a team in most European countries is calculated as on December 31 of any year and older the kid during trials, greater the chances of getting the right opportunities.</t>
+  </si>
+  <si>
+    <t>(D)The school year usually begins in April in most European countries and many parents are known to encourage students to work on their academics and not sports during the school year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E)During the last 50 years, on average 30℅ of the kids have been born during the first three months of the year.
+</t>
+  </si>
+  <si>
+    <t>(A)The first establishes a theory that the author later clearly refutes while the second presents the author's conclusion</t>
+  </si>
+  <si>
+    <t>(B)The first is an interpretation made by researchers that the author contends against and the second provides an alternative explanation for statistical data</t>
+  </si>
+  <si>
+    <t>(C)The first is an opinion expressed by someone other than the author and which the author is completely in disagreement with while the second provides the reason for the author's doubt</t>
+  </si>
+  <si>
+    <t>(D)The first is a fact supporting the researcher's conclusion while the second is the author's conclusion.</t>
+  </si>
+  <si>
+    <t>(E)The first is a clearly proven opinion even if the author disagrees with it while the second is an ambiguous opinion that has no supporting data</t>
+  </si>
+  <si>
+    <t>(A)In countries with a royal family, the eldest son of the king is destined to be the next king.</t>
+  </si>
+  <si>
+    <t>(B)The blacksmith's eldest son in a mediaeval village could not choose any other profession even if he wanted to.</t>
+  </si>
+  <si>
+    <t>(C)A major baseball player will have better knowledge and skills and will be able to guide his son better.</t>
+  </si>
+  <si>
+    <t>(D)60℅ of the country's doctors have at least one parent who is a doctor.</t>
+  </si>
+  <si>
+    <t>(E)It is a proven fact that success in any career is determined more by skill and practice rather than by genetic makeup.</t>
+  </si>
+  <si>
+    <t>(A)The city does not pay welfare unless the applicants have at least some things working for them</t>
+  </si>
+  <si>
+    <t>(B)Claiming that they do not have a car or a TV ensures that the city looks at the applicant more favorably</t>
+  </si>
+  <si>
+    <t>(C)While the applicants may be willing to accept that they don't have certain things, they felt embarrassed having to accept that they don't have most things.</t>
+  </si>
+  <si>
+    <t>(D)Historically, at least 30℅ of the claims have had people understating what they have while only 22℅ overstated what they had.</t>
+  </si>
+  <si>
+    <t>(E)The people who understated what they had were not the same people who overstated what they had</t>
+  </si>
+  <si>
+    <t>(E)The government had initiated schemes to decrease poverty and provide better livelihood for the people just before the terrorist attack.</t>
+  </si>
+  <si>
+    <t>(D)Intel reports show that the terrorists who pulled off the attack had been committing various other smaller crimes regularly to distract law enforcement from their true purposes.</t>
+  </si>
+  <si>
+    <t>(C)There was a recorded decrease in crime rate right after the terrorist attack in almost all cities of the country.</t>
+  </si>
+  <si>
+    <t>(B)A number of people are frightened because of the terrorist attacks and have fled the capital city.</t>
+  </si>
+  <si>
+    <t>(A)The capital city is under increased monitoring leading to quick detection of crimes - many times while the crime is still underway.</t>
+  </si>
+  <si>
+    <t>(A)The government announced in 2008 that estate taxes, payable by the heirs on someone's death, would be abolished effective from the new year.</t>
+  </si>
+  <si>
+    <t>(B)Astrologists predicted that 2009 was a good year to die in, for salvation of the soul.</t>
+  </si>
+  <si>
+    <t>(C)The statistic is an anomaly that has no logical explanation.</t>
+  </si>
+  <si>
+    <t>(D)The price of some cancer drugs and chemotherapy increased by 10% in January 2009, making treatment more expensive than before.</t>
+  </si>
+  <si>
+    <t>(E)An earthquake in one of the cities during December 2008 made hospital care availability more difficult for regular illnesses.</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <r>
+      <t>1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> The National Farm Administration (NFA) has been concerned over the last decade with the struggles of barley growers.
+Plan: In an effort to support these barley growers, two years ago, the NFA began a program of sending them, each autumn, a free special mix of fertilizer and enzymes designed to multiply barley yield, to be applied the following spring during first growth.  This mix had been stunningly successful in multiplying the yield of barley in laboratory conditions.
+Results: Most barley growers reported little change in their economic status over this two year period.
+Further information: All barley growers received the shipments, and all used them.  Weather conditions have been fair to optimal for barley growth over the past two years.
+In light of the further information, which of the following, if true, does most to explain the result that followed the implementation of the plan?</t>
+    </r>
+  </si>
+  <si>
+    <t>2)It seems that medical care is constantly improving and is far better today than it was a few years ago. New medicines are being developed, and at a lower cost. Technological advancements are being made and new treatments are devised. However, hospital care has not improved as much as expected. Most hospitals do not have a large enough ER that can handle a sudden influx of patients and the number of people who die in a hospital due to reasons other than what they got admitted for is staggeringly high.
+All of the following underscore the author’s argument EXCEPT</t>
+  </si>
+  <si>
+    <t>1) In 2009, there was a sharp increase in the number of people who were reported to have died in the country during the first week of the year, compared with the first week of the previous ten years. There seems to be no reason to explain this disproportionately high number of deaths especially because the reports were widespread in the country and there was no epidemic spreading through the country at that point in time. Moreover, most of the deaths were not among the young and could not even be attributed to binge drinking in celebration of the new year.
+Which of the following can then explain the discrepancy?</t>
+  </si>
+  <si>
+    <t>5) Terrorist attacks invariably lead to tremendous losses in life, property, and morale of a country. The effects of a terrorist attack are not just immediate and can have long-lasting, trickle-down effects as well. The fear, for example, takes a long time to die down. However, some of these repercussions can be beneficial to the country. Take for instance, the recent terrorist attack on our capital city. In the weeks following the attack, the crime rate in the city came down significantly from what it was just before the attack. This must primarily be due to the increased presence of police resources that were moved to the area and is thus an indirect effect of the attack.
+Which of the following options gives one more option as to why the crime rate decreased because of the terrorist attacks?</t>
+  </si>
+  <si>
+    <t>4) A survey conducted recently in the city indicated that most college welfare-aid applicants understate the number of luxury items - such as cars and TVs – that their family owned, in an effort to maximize the amount of aid they can claim from the city. Paradoxically, the same study also found that many applicants claimed that they had running water and a gas connection even when they did not.
+Which of the following best explains the apparent paradox?</t>
+  </si>
+  <si>
+    <t>3) During medieval times, the administrative system was organized such that jobs were traditionally held within the same family. The eldest son of the village's blacksmith will take up his father’s business and become the next blacksmith. The other sons would join the army or serve the king in some fashion while the daughters did what their mother did. Although the world has undergone innumerable changes, the dynastic system has not undergone any change whatsoever. Children who have fathers who played major league baseball are 800 times more likely than other kids to become major league players themselves.
+Which of the following best refutes the author's reasoning?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2) Studies have established that children who watched 2 more hours of TV on an average daily basis during the first 15 years of their life were 50℅ more likely to be arrested for property crimes in the country. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Researchers believe that these studies clearly establish that violence in movies and TV contribute to aggressive behavior in real life. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">On the other hand, there is no clear evidence that the programs that the kids watched on TV were violent in the first place. Even if we were to accept that TV watching contributed to the increased crime rate, it need not have been because of the nature of the programs. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Perhaps, children who watched programs such as Adams and Samson, a funny sit-com about two blundering cops began perceiving all cops as incompetent.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+What is the role of the underlined sentences?</t>
+    </r>
+  </si>
+  <si>
+    <t>5) Alan: In the last 15 years, most of the criminals who were convicted of theft or murder were from the lower income classes and had not completed high school. Therefore, the government has to spend more money on reducing poverty and increase funding to education. Because terrorism is the most severe of all crimes, such measures would bring down overall crime rate and reduce threat from terrorism.
+Dylan: A study that was conducted in a country known to produce a number of terrorists showed that on average the terrorists were better educated than the overall population and that they did not necessarily come from lower income classes. This is probably because crimes such as theft are committed for personal gain while terrorism is for political or religious gain.
+Which of the following best describes Dylan's response to Alan?</t>
+  </si>
+  <si>
+    <t>1)During the last 50 years in England, the national football team has had at least 60℅ of its players born during the months January to March. Similarly, in Germany, at least 50℅ of the team has been born during the first three months of the year. In fact, this statistic holds true for most European countries. This shows that in most European countries, parents with kids born early in the year are more likely to encourage a football career.
+Which of the following best explains why the conclusion need not be the best explanation for the statistic?</t>
+  </si>
+  <si>
+    <t>4) In an effort to curb drug abuse, the government has imposed strict laws to prosecute the dealers. However, such an initiative is unlikely to be effective. Prosecuting dealers will lead to a shortage of drugs. At the same time, because no efforts are being taken to curb demand, drugs will be sold at a premium, attracting more people to the very remunerative job of drug dealing. Therefore, to effectively reduce drug abuse, the government will have to prosecute the drug users and not dealers.
+Which of the following is the most relevant information in evaluating the credibility of the argument?</t>
+  </si>
+  <si>
+    <t>3) The Americans with disabilities act (ADA) was designed to ensure that there is no discrimination against and unfair termination of differently-abled workers in the workplace. However, after the act was introduced, there has been a marked increase in unemployment among the differently-abled.
+Which of the following best explains this seeming discrepancy?</t>
+  </si>
+  <si>
+    <t>2) Linda: In the 1800s, it was found that one in every six women who gave birth in hospitals died of a fever they had contracted after delivering the child and that the mortality was not as high if they gave birth at home with the help of a mid wife. It was found that the doctors had a poorer sense of hygiene and that their dirty hands and instruments were leading to pathogens entering a woman's bloodstream. Thankfully, hygienic conditions today are much better and women are safer.
+Fiona: But doctors today are so overworked that a number of doctors, while aware of the need for better hygiene, barely find the time to wash their hands. The likelihood of infections caused by doctors is probably not any better.
+Which of the following can be used by Fiona to further establish that Linda need not be correct in her reasoning?</t>
+  </si>
+  <si>
+    <t>(A) Most hospitals require doctors to do so much paperwork that they spend insufficient time on direct patient care.</t>
+  </si>
+  <si>
+    <t>(B)Most hospitals recirculate air and therefore, it is very easy for diseases such as anthrax to spread through the hospital.</t>
+  </si>
+  <si>
+    <t>(C)In smaller cities, the ambulance service is on a voluntary basis and the response time for calls is much lower than the national average, leading to a higher loss of life.</t>
+  </si>
+  <si>
+    <t>(D)A number of doctors in private hospitals are not held accountable by the administration for the loss of patients.</t>
+  </si>
+  <si>
+    <t>(E)Doctors in most private hospitals have performance appraisals based on how much money they have brought in for the hospital rather than based on how effectively they treated patients.</t>
+  </si>
+  <si>
+    <t>3) Industrial and automobile pollution have long been thought to contribute to global warming. However, researchers have identified that the carbon dioxide and carbon monoxide released into the atmosphere are not as potent as the methane emitted by cud-chewing animals such as cows when they fart or belch. Therefore, if you drive a hybrid electric car to the grocery, any favor that you would do to the environment would be offset if you end up buying beef.
+Which of the following best describes the author's reasoning?</t>
+  </si>
+  <si>
+    <t>4) There are several scientific studies and research findings that are constantly discussed and publicized in the news media. Some of these are contrary to other research studies that are published. This conflict in information makes people believe that either science is inaccurate or that they can ‘choose’ which scientific result they want to believe in. However, neither of these beliefs is accurate. Science is not inaccurate or subjective. Most of the time, scientific studies show inconsistent results either because of inaccuracies in methodology adopted or because of misrepresentation of actual results by the news media. For example, a recent study done on just 15 women showed that eating chocolate was not necessarily harmful during pregnancy and the media reported that chocolate was actually beneficial to the foetus.
+Which of the following best further corroborate the author’s argument?</t>
+  </si>
+  <si>
+    <t>5)John: A study has identified that many soldiers received less-than-honorable discharges from the army due to charges of misconduct that can actually be attributed to conditions such as PTSD and traumatic brain injury. This is a military practice that is unfair and must be avoided. The army must take responsibility for the same and stop discharging their soldiers dishonorably.
+Christy: While it is true that it is unfair to the soldiers to be discharged so from the army, it has also been found that there are no sufficient measures or systems that have been created to identify whether the misconduct was due to trauma or due to other reasons. Moreover, to enforce discipline in the ranks, it is important for the army to follow a uniform rule for all the soldiers.
+Which of the following statements can Christy further add to her argument?</t>
+  </si>
+  <si>
+    <t>(A) A study result that shows that the effect of automobile pollution on global warming is marginal.</t>
+  </si>
+  <si>
+    <t>(B) An unverified study gaining popularity because it seemingly showed that red wine reduces the risk of cancer on a very small control group.</t>
+  </si>
+  <si>
+    <t>(C)A new study that further collaborates an earlier finding that the consumption of some types of berries lower the risk of heart failure.</t>
+  </si>
+  <si>
+    <t>(D)The news media highlighting the fact that a study had clearly proven that effects of certain drugs on rats need not be the same as on humans.</t>
+  </si>
+  <si>
+    <t>(E)People not knowing what to believe because one study shows that a certain disease is caused by genetic factors, while another shows that it also caused by lifestyle factors.</t>
+  </si>
+  <si>
+    <t>(A)If there is no proper system, then the army should have developed a proper system by now.</t>
+  </si>
+  <si>
+    <t>(B)Complete elimination of dishonorable discharges would make it more difficult for the army to monitor and evaluate the soldiers.</t>
+  </si>
+  <si>
+    <t>(C)It is not the army’s fault that there has been no system developed to help those with PTSD</t>
+  </si>
+  <si>
+    <t>(D)Studies have also found that showing consideration for some soldiers has led to others taking advantage, indirectly promoting misconduct.</t>
+  </si>
+  <si>
+    <t>(E)There have been instances when the army has been able to identify the reasons for the misconduct and acted accordingly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E)The author makes a comparison between two theories by providing an example
+</t>
+  </si>
+  <si>
+    <t>(D)The author uses an illustration to support a new school of thought that is contrary to a popular school of thought</t>
+  </si>
+  <si>
+    <t>(C)The author presents a new theory in response to an existing well-established theory</t>
+  </si>
+  <si>
+    <t>(B)The author disproves a popular notion by providing evidence that is contrary to it</t>
+  </si>
+  <si>
+    <t>(A)The author establishes a point by drawing an analogy</t>
+  </si>
+  <si>
+    <t>1) Jess: To be a woman in this century is far better than to be a woman in centuries past. Life expectancy for women has - for the first time - surpassed that for men and while only around 20℅ of college students in the late 1800s were women, today, almost 60℅ of college students are women.
+Sam: However, women educated in the top-ranked colleges in the country earn only about 70℅ of what their male counterparts earn. Also, studies show that even today, in a number of industries, women are refused top management positions simply because they are women.
+Which of the following is Jess most likely to say in response to Sam?</t>
+  </si>
+  <si>
+    <t>(A)Women today are healthier and live longer than women in the 1800s, who primarily died because of child birth.</t>
+  </si>
+  <si>
+    <t>(B)There are more women at the entry-level jobs of most industries than there are men.</t>
+  </si>
+  <si>
+    <t>(C)Women today are better able to juggle professional and personal lives and a number of them are proving to be successful single mothers.</t>
+  </si>
+  <si>
+    <t>(D)The proportion of women in the judicial and legislative branches of the country is at its highest and the country elected its first woman president recently.</t>
+  </si>
+  <si>
+    <t>(E)Women are allowed more freedom today and are not likely to be sacrificed at the altar of marriage or in a witch hunt.</t>
+  </si>
+  <si>
+    <t>2) Artistic success as an actor is directly dependent on how well an actor has developed his craft. This has been demonstrated by the discovery of a positive relationship between the number of classes taken by an actor and the number of professional productions in which the actor has appeared in the past two years.
+Each of the following, if true, cast doubt on the author's argument about artistic success for actors EXCEPT:</t>
+  </si>
+  <si>
+    <t>3) Music Industry executives have claimed that online file-sharing networks are significantly hurting their business because potential consumers are getting music for free that they would otherwise purchase. However, after file-sharing networks started to become popular, CD sales actually increased.
+Which of the following, if true, best explains the apparent contradictions described above?</t>
+  </si>
+  <si>
+    <t>(C)For most successful actors, it's not the quantity but the quality of their classes that has helped to develop their craft</t>
+  </si>
+  <si>
+    <t>(E)Most successful actors have taken only a small number of intensive classes.</t>
+  </si>
+  <si>
+    <t>(D)There is no relationship between the number of professional productions in which an actor has appeared and true artistic success.</t>
+  </si>
+  <si>
+    <t>(B)Success as an actor cannot necessarily be judged exclusively by recent credits.</t>
+  </si>
+  <si>
+    <t>(A)The figures for the number of classes taken were based solely on information provided by actors.</t>
+  </si>
+  <si>
+    <t>(E)Music available on file-sharing networks is on the same audio quality as music on commercially produced CDs.</t>
+  </si>
+  <si>
+    <t>(D)Many consumers have purchased music by artists they discovered through file-sharing networks.</t>
+  </si>
+  <si>
+    <t>(C)Many people prefer to store their music as computer files rather than maintain large CD collections.</t>
+  </si>
+  <si>
+    <t>(B) The few people using file-sharing networks already purchased more music than most people.</t>
+  </si>
+  <si>
+    <t>(A)File-sharing networks carry a more complete variety of music than most traditional music stories.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4)A factory was trying out a new process for producing one of its products, with the goal of reducing production costs. A trial production run using the new process showed a fifteen percent reduction in costs compared with past performance using the standard process. The production managers therefore concluded that the new process did produce a cost savings.
+Which of the following, if true, casts most doubt on the production managers' conclusion?
+</t>
+  </si>
+  <si>
+    <t>5)Passengers must exit airplanes swiftly after accidents, since gases released following accidents are toxic to humans and often explode soon after being released. In order to prevent passenger deaths from gas inhalation, safety officials recommend that passengers be provided with smoke hoods that prevent inhalation of the gases.
+Which of the following, if true, constitutes the strongest reason not to require implementation of the safety officials' recommendation?</t>
+  </si>
+  <si>
+    <t>(A)In the cost reduction project that eventually led to the trial of the new process, production managers had initially been seeking cost reductions of fifty percent.</t>
+  </si>
+  <si>
+    <t>(B)Analysis of the trial of the new process showed that the cost reduction during the trial was entirely attributable to a reduction in the number of finished products rejected by quality control.</t>
+  </si>
+  <si>
+    <t>(C)While the trial was being conducted, production costs at the factory for a similar product, produced without benefit of the new process, also showed a fifteen percent reduction.</t>
+  </si>
+  <si>
+    <t>(D)Although some of the factory's managers have been arguing that the product is outdated and ought to be redesigned, the use of the new production process does not involve any changes in the finished product.</t>
+  </si>
+  <si>
+    <t>(E)Since the new process differs from the standard process only in the way in which the stages of production are organized and ordered, the cost of the materials used in the product is the same in both processes</t>
+  </si>
+  <si>
+    <t>(A) Test evacuations showed that putting on the smoke hoods added considerably to the overall time it took passengers to leave the cabin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B)Some airlines are unwilling to buy the smoke hoods because they consider them to be prohibitively expensive. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C)Although the smoke hoods protect passengers from the toxic gases, they can do nothing to prevent the gases from igniting. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(D)Some experienced flyers fail to pay attention to the safety instructions given on every commercial flight before takeoff. </t>
+  </si>
+  <si>
+    <t>(E)In many airplane accidents, passengers who were able to reach emergency exits were overcome by toxic gases before they could exit the airplane.</t>
+  </si>
+  <si>
+    <t>GREQA</t>
+  </si>
+  <si>
+    <t>GREQB</t>
+  </si>
+  <si>
+    <t>GREQC</t>
+  </si>
+  <si>
+    <t>GREQD</t>
+  </si>
+  <si>
+    <t>GREQE</t>
+  </si>
+  <si>
+    <t>GREA</t>
+  </si>
+  <si>
+    <t>GMATQA</t>
+  </si>
+  <si>
+    <t>GMATQB</t>
+  </si>
+  <si>
+    <t>GMATQC</t>
+  </si>
+  <si>
+    <t>GMATQD</t>
+  </si>
+  <si>
+    <t>GMATQE</t>
+  </si>
+  <si>
+    <t>1) The Dvorak keyboard requires less finger movement than the ubiquitous QWERTY keyboard. As a result, Dvorak keyboard users are not only able to type more words per minute, but are also less vulnerable to both repetitive stress disorder and carpal tunnel syndrome. Nonetheless, businesses, as well as consumers, have not adopted the Dvorak keyboard. Clearly, if the Dvorak keyboard is to become more widely used, its benefits must be more widely touted.
+Which of the following, if true, most threatens the author’s conclusion?</t>
+  </si>
+  <si>
+    <t>2)The median house value in Butlerville has fallen significantly in the last few months. Nonetheless, the number of homes sold has been at its lowest level in seven years.
+Which of the following best explains the discrepancy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) </t>
+  </si>
+  <si>
+    <t>(A) The value of homes is not the only determinant of whether a house will be sold.</t>
+  </si>
+  <si>
+    <t>(B)The neighboring city of Jacksonburg has seen a recent surge in home sales.</t>
+  </si>
+  <si>
+    <t>(C)The Butlerville economy is struggling and the unemployment rate has reached historic rates.</t>
+  </si>
+  <si>
+    <t>(D)Analysts predict that the number of homes sold will increasing in the coming year.</t>
+  </si>
+  <si>
+    <t>(E)Homes priced over a million dollars have seen the sharpest decline in sales.</t>
+  </si>
+  <si>
+    <t>(A)The initial cost of manufacturing a Dvorak keyboard will be more expensive than that of a QWERTY keyboard.</t>
+  </si>
+  <si>
+    <t>(B)Many who have attempted using a Dvorak keyboard claim that learning the configuration of keys takes weeks.</t>
+  </si>
+  <si>
+    <t>(C)Those suffering from repetitive stress injuries often attribute the injuries to multiple factors.</t>
+  </si>
+  <si>
+    <t>(D)Businesses that have educated employees on the benefits of the Dvorak keyboard, have found that employees continue to use the Qwerty keyboard.</t>
+  </si>
+  <si>
+    <t>(E)Businesses have found that many employees who believe the Qwerty keyboard is responsible for stress-induced injuries are unaware of the Dvorak keyboard.</t>
+  </si>
+  <si>
+    <t>1)Executive: We recently ran a set of advertisements in the print version of a travel magazine and on that magazine’s website. We were unable to get any direct information about consumer response to the print ads. However, we found that consumer response to the ads on the website was much more limited than is typical for website ads. We concluded that consumer response to the print ads was probably below par as well.
+The executive’s reasoning does which one of the following?</t>
+  </si>
+  <si>
+    <t>(A)bases a prediction of the intensity of a phenomenon on information about the intensity of that phenomenon’s cause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B)uses information about the typical frequency of events of a general kind to draw a conclusion about the probability of a particular event of that kind
+</t>
+  </si>
+  <si>
+    <t>(C)infers a statistical generalization from claims about a large number of specific instances</t>
+  </si>
+  <si>
+    <t>(D)uses a case in which direct evidence is available to draw a conclusion about an analogous case in which direct evidence is unavailable</t>
+  </si>
+  <si>
+    <t>(E)bases a prediction about future events on facts about recent comparable events</t>
+  </si>
+  <si>
+    <t>2) Laird: Pure research provides us with new technologies that contribute to saving lives. Even more worthwhile than this, however, is its role in expanding our knowledge and providing new, unexplored ideas.
+Kim: Your priorities are mistaken. Saving lives is what counts most of all. Without pure research, medicine would not be as advanced as it is.
+Laird and Kim disagree on whether pure research...</t>
+  </si>
+  <si>
+    <t>(A)derives its significance in part from its providing new technologies</t>
+  </si>
+  <si>
+    <t>(B)expands the boundaries of our knowledge of medicine</t>
+  </si>
+  <si>
+    <t>(C)should have the saving of human lives as an important goal</t>
+  </si>
+  <si>
+    <t>(D)has its most valuable achievements in medical applications</t>
+  </si>
+  <si>
+    <t>(E)has any value apart from its role in providing new technologies to save lives</t>
+  </si>
+  <si>
+    <t>3)The supernova event of 1987 is interesting in that there is still no evidence of the neutron star that current theory says should have remained after a supernova of that size. This is in spite of the fact that many of the most sensitive instruments ever developed have searched for the tell-tale pulse of radiation that neutron stars emit. Thus, current theory is wrong in claiming that supernovas of a certain size always produce neutron stars.
+Which one of the following, if true, most strengthens the argument?</t>
+  </si>
+  <si>
+    <t>(A)Most supernova remnants that astronomers have detected have a neutron star nearby.</t>
+  </si>
+  <si>
+    <t>(B)Sensitive astronomical instruments have detected neutron stars much farther away than the location of the 1987 supernova.</t>
+  </si>
+  <si>
+    <t>(C)The supernova of 1987 was the first that scientists were able to observe in progress.</t>
+  </si>
+  <si>
+    <t>(D)Several important features of the 1987 supernova are correctly predicted by the current theory.</t>
+  </si>
+  <si>
+    <t>(E)Some neutron stars are known to have come into existence by a cause other than a supernova explosion.</t>
+  </si>
+  <si>
+    <t>4)Political scientist: As a political system, democracy does not promote political freedom. There are historical examples of democracies that ultimately resulted in some of the most oppressive societies. Likewise, there have been enlightened despotisms and oligarchies that have provided a remarkable level of political freedom to their subjects.
+The reasoning in the political scientist’s argument is flawed because it...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A)confuses the conditions necessary for political freedom with the conditions sufficient to bring it about  </t>
+  </si>
+  <si>
+    <t>(B)fails to consider that a substantial increase in the level of political freedom might cause a society to become more democratic</t>
+  </si>
+  <si>
+    <t>(C)appeals to historical examples that are irrelevant to the causal claim being made</t>
+  </si>
+  <si>
+    <t>(D)overlooks the possibility that democracy promotes political freedom without being necessary or sufficient by itself to produce it</t>
+  </si>
+  <si>
+    <t>(E)bases its historical case on a personal point of view</t>
+  </si>
+  <si>
+    <t>5) Journalist: To reconcile the need for profits sufficient to support new drug research with the moral imperative to provide medicines to those who most need them but cannot afford them, some pharmaceutical companies feel justified in selling a drug in rich nations at one price and in poor nations at a much lower price. But this practice is unjustified. A nation with a low average income may still have a substantial middle class better able to pay for new drugs than are many of the poorer citizens of an overall wealthier nation.
+Which one of the following principles, if valid, most helps to justify the journalist’s reasoning?</t>
+  </si>
+  <si>
+    <t>(A)People who are ill deserve more consideration than do healthy people, regardless of their relative socioeconomic positions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B)Wealthy institutions have an obligation to expend at least some of their resources to assist those incapable of assisting themselves.
+</t>
+  </si>
+  <si>
+    <t>(C)Whether one deserves special consideration depends on one’s needs rather than on characteristics of the society to which one belongs.</t>
+  </si>
+  <si>
+    <t>(D)The people in wealthy nations should not have better access to health care than do the people in poorer nations.</t>
+  </si>
+  <si>
+    <t>(E)Unequal access to health care is more unfair than an unequal distribution of wealth.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +839,35 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,10 +886,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -175,8 +902,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,114 +1193,815 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="V1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M2" t="s">
+        <v>182</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="P2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="R2" t="s">
+        <v>186</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="T2" t="s">
+        <v>188</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="P4" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>197</v>
+      </c>
+      <c r="R4" t="s">
+        <v>198</v>
+      </c>
+      <c r="S4" t="s">
+        <v>199</v>
+      </c>
+      <c r="T4" t="s">
+        <v>200</v>
+      </c>
+      <c r="U4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="P5" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>203</v>
+      </c>
+      <c r="R5" t="s">
+        <v>204</v>
+      </c>
+      <c r="S5" t="s">
+        <v>205</v>
+      </c>
+      <c r="T5" t="s">
+        <v>206</v>
+      </c>
+      <c r="U5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="P6" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="R6" t="s">
+        <v>210</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="T6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="330" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="11" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="285" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="13" spans="1:22" ht="395.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="360" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="229.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="405" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="293.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="18" spans="1:7" ht="300" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="360" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AcademicSelf-Regulation/QuestionsText.xlsx
+++ b/AcademicSelf-Regulation/QuestionsText.xlsx
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="476">
   <si>
     <t>GRE</t>
-  </si>
-  <si>
-    <t>MCAT</t>
   </si>
   <si>
     <t>GMAT</t>
@@ -683,9 +680,6 @@
 Which of the following best explains the discrepancy?</t>
   </si>
   <si>
-    <t xml:space="preserve">3) </t>
-  </si>
-  <si>
     <t>(A) The value of homes is not the only determinant of whether a house will be sold.</t>
   </si>
   <si>
@@ -812,13 +806,914 @@
   </si>
   <si>
     <t>(E)Unequal access to health care is more unfair than an unequal distribution of wealth.</t>
+  </si>
+  <si>
+    <t>LSATQA</t>
+  </si>
+  <si>
+    <t>LSATQB</t>
+  </si>
+  <si>
+    <t>LSATQC</t>
+  </si>
+  <si>
+    <t>LSATQD</t>
+  </si>
+  <si>
+    <t>LSATQE</t>
+  </si>
+  <si>
+    <t>(A) The levels of the compounds typically used in boat paints today are lower than they were in boat paints manufactured a decade ago.</t>
+  </si>
+  <si>
+    <t>(B) In high concentrations, the compounds are toxic to many types of marine animals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(D)High tissue levels of the compounds have recently been found in some marine animals, but there is no recocrd of any of those animals dying in unusually large numbers rececntly </t>
+  </si>
+  <si>
+    <t>4) Extensive housing is underway in Pataska Forest, the habitat of a large population of deer. Because deer feed at the edges of the forests, these deer will be attracted to the spaces alongside the new roads. Being cut through Pataska Forest to serve the new residential areas. Consequently, once the housing is occupied, the annual number of the forest's deer hit by cars will be much higher than before construction started. 
+Which of the following is an assumption on which the argument depends?</t>
+  </si>
+  <si>
+    <t>(A)The number of deer hit by commercial vehicles will not increase significantly when the housing is occupied.</t>
+  </si>
+  <si>
+    <t>(B)Deer will be as attracted to the forest edge around new houses as to the forest edge alongside roads.</t>
+  </si>
+  <si>
+    <t>(D) The development will leave sufficient forest to sustain a signiificant population of deer.</t>
+  </si>
+  <si>
+    <t>(A)The Bordeaux grape is the most popular grape in France, but is rarely, if ever, grown in Argentina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B)Some varietals are unable to grow at high altitudes. </t>
+  </si>
+  <si>
+    <t>5)The Malbec grape, originally grown in France, has become the main varietal in Argentina. This is surprising because most Malbec grown in Argentina is grown at high altitudes, whereas the Malbec grape once was grown at low altitudes. Therefore, Argentinian winegrowers should grow the Malbec grape at low elevations.
+Which of the following, if true, would most weaken the conclusion of the argument?</t>
+  </si>
+  <si>
+    <t>1) The Green Peas Grocery Store in the remote wealthy enclave of Luxville charges more than the Green Peas Grocery Store in Oak City charges for the same items. Clearly, on any given item, the Green Peas grocery franchise is taking advantage of its location in Luxville to reap higher profits on that item.
+In evaluating the argument, it would be most useful to compare</t>
+  </si>
+  <si>
+    <t>(A) the selection of specialty items in the Oak City location with the selection of specialty items in the Luxville location.</t>
+  </si>
+  <si>
+    <t>(B)the cost of transporting merchandise to the Oak City location with the comparable cost to the Luxville location.</t>
+  </si>
+  <si>
+    <t>(C) the average cost of the same or comparable items at other grocery stores in Oak City with the average cost at other stores in Luxville.</t>
+  </si>
+  <si>
+    <t>(D)the percent of average household income spent on groceries in Oak City with the comparable percentage in Luxville.</t>
+  </si>
+  <si>
+    <t>(E) the cost of these items in Oak City and in Luxville with the cost at other Green Peas stores throughout the state.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) Recently, an unusually high number of dolphins have been found dead of infectious diseases, and most of these had abnormally high tissue concentrations of certain compounds that, even in low concentrations, reduce dolphins' resistance to infection. The only source of these compounds in the dolphins' environment is boat paint.  Therefore, since dolphins rid their bodies of the compounds rapidly once exposure ceases, their mortality rate should decline rapidly if such boat paints are banned.
+Which of the following, if true, most strengthens the argument? 
+</t>
+  </si>
+  <si>
+    <t>(A) In most major cities, air-pollution problems are caused almost entirely by local industry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B) Air-pollution regulations on industry have a significant impact on the quality of the air. </t>
+  </si>
+  <si>
+    <t>(D)An increase in the number of bird species in and around a city is desirable.</t>
+  </si>
+  <si>
+    <t>(A)The city of Cephesa is mentioned in a historical work known to have been written in A.D. 400.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B)Coins bearing the image of an emperor who lived around A.D. 410 have been discovered in the ruins of Cephesa, which were preserved by the cinders and ashes that buried the city. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(D) Artworks from the city of Cephesa have been found in the ruins of another city known to have been desrtoyed in A.D. 420. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A)The trucking industry has enjoyed record after-tax profits in three of the past four years. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B) Because of their weight, trucks cause over 50 percent of the damage sustained by highway surfaces each year. </t>
+  </si>
+  <si>
+    <t>(D) Road use taxes paid by trucking companies have decreased by 3 percent over the past five years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A)Conflicts over language have led to violent clashes between the Basque-speaking minority in Spain and the Spanish-speaking majority. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B)Proposals to declare English the official language of the United States have met with resistance from members of Hispanic and other minority groups. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(D)The public of India, in existence since 1948, has a population that speaks hundreds of different, though related, languages. </t>
+  </si>
+  <si>
+    <t>1)As an experienced labor organizer and the former head of one of the nation’s most powerful labor unions, Grayson is an excellent choice to chair the new council on business-labor relations.
+Which of the following, if true, would most strengthen the conclusion above?</t>
+  </si>
+  <si>
+    <t>5)No nation can long survive unless its people are united by a common tongue. For proof, we need only consider Canada, which is being torn asunder by conflicts between French-speaking Quebec and the other provinces, which are dominated by English speakers.
+Which of the following, if true, most effectively challenges the author’s conclusion?</t>
+  </si>
+  <si>
+    <t>2) In the years since the city of London imposed strict air-pollution regulations on local industry, the number of bird species seen in and around London has increased dramatically. Similar air-pollution rules should be imposed in other major cities.
+Each of the following is an assumption made in the argument above EXCEPT:</t>
+  </si>
+  <si>
+    <t>3) The ancient city of Cephesa was not buried by an eruption of Mt. Amnos is A.D. 310, as some believe. The eruption in the year 310 damaged the city, but it did not destroy it. Cephesa survived for another century before it finally met its destruction in another eruption around A.D. 415. 
+Which of the following, if true, would most strengthen the author’s claim that the city of Cephesa was not buried by the eruption of Mt. Amnos in A.D. 310?</t>
+  </si>
+  <si>
+    <t>4) The burden of maintaining the U.S. highway system falls disproportionately on the trucking industry. Trucks represent only about 10 percent of the vehicles on U.S. roads. Yet road use taxes assessed on trucks amount to almost half the taxes paid for highway upkeep and repair.
+Which of the following, if true, would most weaken the argument above?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A) The new council must have the support of the nation's labor leaders if it is to succeed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B)During his years as a labor leader, Grayson established a record of good relations with business leaders. </t>
+  </si>
+  <si>
+    <t>(D)Most of the other members of the new council will be representatives of business management interests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) Ronald: According to my analysis of the national economy, housing prices should not increase during the next six months unless interest rates drop significantly.
+Mark: I disagree. One year ago, when interest rates last fell significantly, housing prices did not increase at all.
+It can be inferred from the conversation above that Mark has interpreted Ronald's statement to mean that </t>
+  </si>
+  <si>
+    <t>(A)Housing prices will rise only if interest rates fall.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B)If interest rates fall, housing prices must rise. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(D) Interest rates are the only significant economic factor affecting housing prices. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) It’s time we stopped searching for new statistics to suggest that we are not spending enough on education. In fact, education spending increased 30 percent overall during the last decade.
+Which of the following, if true, would most weaken the argument above. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A) Despite increased spending on education, enrollment in our elementary and secondary schools declined about 4 percent during the last ten years. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B) Our spending on gasoline increased more than 100 percent during the last decade. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(D) Eleven other economically developed nations spend more on education than we do.  </t>
+  </si>
+  <si>
+    <t>4) The U.S. census is not perfect: thousands of Americans probably go uncounted. However, the basic statistical portrait of the nation painted by the census is accurate. Certainly some of the poor go uncounted, particularly the homeless; but some of the rich go uncounted as well, because they are often abroad or traveling between one residence and another.
+Which of the following is an assumption on which the argument above depends?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A) Both the rich and the poor have personal and economic reasons to avoid being counted by the census. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B)All Americans may reasonably be classified as either rich or poor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(D) The number of homeless Americans is approximately equal to the number of rich Americans. </t>
+  </si>
+  <si>
+    <t>5) Some commentators complain that a “litigation explosion” in the past decade has led to unreasonably high costs for U.S. businesses by encouraging more product liability suits against manufacturers. However, these complaints are based mainly on myth. Statistics show that the number of successful product liability suits has remained almost the same, and the average sum awarded in damages has grown no faster than the inflation rate.
+Which of the following, if true, would most weaken the argument above?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A)The number of unsuccessful suits has skyrocketed, imposing huge new legal expenses on businesses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B)Several of the largest awards ever made in product liability cases occurred within the last two years. </t>
+  </si>
+  <si>
+    <t>(D) Lawyers often undertake product liability cases on a contingency basis, so their payment is based on the size of the damages awarded.</t>
+  </si>
+  <si>
+    <t>1) In an experiment, two different types of recorded music were played for neonates in adjacent nurseries in a hospital. In nursery A, classical music was played; in nursery B, rock music was played. After two weeks, it was found that the babies in nursery A cried less, suffered fewer minor ailments, and gained more weight than did the babies in nursery B.
+In evaluating the validity of the conclusion suggested by the experiment above, it would be most important to know which of the following?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A) The musical preferences of the parents of the two groups of newborns. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B) Whether the newborns in both nurseries were equally healthy and happy at the start of the experiment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(D)What the average weight of the neonates wasa before and after the experiment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) June is taller than Kristin.
+Letty is taller than Maria.
+Maria is shorter than Nancy.
+Kristin and Nancy are exactly the same height.
+If the information above is true, which of the following must also be true? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A) Letty is taller than Nancy </t>
+  </si>
+  <si>
+    <t>(B) Letty is taller than June</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(D) June is taller than Maria. </t>
+  </si>
+  <si>
+    <t>3) The upcoming presidential election in the West African republic of Ganelon is of grave concern to the U.S. State Department. Ganelon presently has strong political and military ties to the United States. However, the Socialist party is widely expected to win the election, leading to fears that Ganelon will soon break away from the pro-American bloc and adopt a nonaligned or openly anti-American stance.
+Which of the following is an assumption made in the passage above?</t>
+  </si>
+  <si>
+    <t>(B) The people of the United States recognize their nation's interest in the political stability of West Africa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(D) The Sociallist party leaders in Ganelon believe that their nation's interests would best be served by an alliance with anti-American forces. </t>
+  </si>
+  <si>
+    <t>4) Last year, Mayor Stephens established a special law-enforcement task force with the avowed mission of eradicating corruption in city government. The mayor's handpicked task force has now begun prosecuting a dozen city officials. Since all of these officials were appointed  by Mayor Bixby, Mayor Stephens' predecessor and longtime political foe, it is clear that those being targeted because of their political affiliations. 
+Which of the following, if true, most weakens the editorial's argument?</t>
+  </si>
+  <si>
+    <t>(A) Complaints of official corruption in city government have decreased since the anticorruption task force began operating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B) Former mayor Bixby did not publicly oppose Mayor Stephens' establishment of the anticorruption task force. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(D) All of the members of the anticorruption task force had other jobs in city government before the task force was formed. </t>
+  </si>
+  <si>
+    <t>5) Coursemetrics, a privately owned on-line education platform, recently offered courses targeted to college students. In order to ensure the validity and effectiveness of the video lessons, Coursemetrics selected notable professors from across the country to evaluate the content of the videos. Since Coursemetrics only made part of its curriculum those videos in which more than 80% of the professors rated as “good”, the courses will be popular amongst college students in general.
+Which of the following is an assumption on which the argument depends?</t>
+  </si>
+  <si>
+    <t>(A) A few college students tested the product before it was released to the public and almost all of them rated the product lower than did the college professors.</t>
+  </si>
+  <si>
+    <t>(B) Coursemetrics initially launched a successful product for high school students learning algebra.</t>
+  </si>
+  <si>
+    <t>(E) The courses offered by Coursemetrics are ones in which college students struggle and seek outside help.</t>
+  </si>
+  <si>
+    <t>(D) Coursemetrics selected professors from a variety of subjects.</t>
+  </si>
+  <si>
+    <t>(C) Every professor who tested Coursemetrics gave at least one video a rating of “Good”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C)The compounds break down into harmless substances after a few months of exposure to water or air. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E)The compounds do not leach out of the boat paint if the paint is applied exactly in accordance with the manufacturer's directions. </t>
+  </si>
+  <si>
+    <t>(C)In past years, the annual number of deer that have been hit by cars on existing roads through Pataska Forest has been very low.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E)No deer hunting will be allowed in Pataska Forest when the housing is occupied. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C)The soil at high altitudes is filled with nutrients that help the Malbec grape grow. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E)Malbec has recently enjoyed a surge in popularity, and can be found in many different countries. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(D) The Malbec vine is susceptible to phylloxera, a plant louse that only growss at low altitudes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E) During the last mayoral election campaign, then-Mayor Bixby hotly disputed the current mayor's claim that there was widespread corruptioniii in city government. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C)Almost all of the officials who have served in city government for any length of time are appointees of Mayor Bixby. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C) A weakening of U.S. political ties with Ganelon could have serious consequences for U.S. relations with other African nations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E)The Socialist party will win the upcoming election in Ganelon. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A) A Socialist party government in Ganelon is more likely to oppose the United States than is a non-Socialist party government. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E)Kristin is shorter than Maria. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C)Kristin is shorter than Letty </t>
+  </si>
+  <si>
+    <t>(C)Whether loud rock music can damage the hearing of newborns.</t>
+  </si>
+  <si>
+    <t>(E)Whether the music was played in the nurseries at all times or only at certain times.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C)The rise of the consumer movement has encouraged citizens to seek legal redress for product flaws. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E)) Juries often award damages in product liability suits out of emotional sympathy for an injured consumer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C) The percentage of poor Americans uncounted by the census is close to the percentage of rich Americans uncounted. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E)The primary purpose of the census is to analyze the economic status of the American population. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C) When adjusted for inflation, our per-pupil expenditure on edcuation this year is less than it was ten years ago. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E) The achievement levels of our students have been declining steadily since 1960, and the last decade produced no reversal in this trend. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E) Interest rates are likely to fall significantly in the next six months. </t>
+  </si>
+  <si>
+    <t>(C)Interest rates and housing prices tend to rise and fall together.</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C)The chair of the new council must be a person who can communicate directly with the leaders of the nation's largest labor unions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E) An understanding of the needs and problems of labor is the only quallification necessary for the job of chairing the new council. </t>
+  </si>
+  <si>
+    <t>(C)Economic and political differences, along with linguistic ones, have contributed to the provincial conflicts in Canada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E)Switzerland has survived for nearly a thousand years as a home for speakers of three different languages. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E)Due to years of neglect, U.S. highways today are badly in need of major repairs and rebuilding. </t>
+  </si>
+  <si>
+    <t>(C) Without an economically viable trucking industry, the cost of goods in the United States would rise significantly.</t>
+  </si>
+  <si>
+    <t>(E)A hostorical work written in A.D. 430 refers to the eruption of Mt. Amnos in A.D. 415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C)Geological evidence shows the erruption of Mt. Amnos in A.D. 415 deposited a 10-foot layer of lava on the city of Cephesa  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E)The increased sightings of bird species in and around London reflect an actual increase in the number of species in the area. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C)The air-pollution problems of other major cities are basically similar to those once suffered by London. </t>
+  </si>
+  <si>
+    <t>1) Unlike the lungs and the kidneys, the liver is an organ well suited for living-donor transplants to children because the portion of the liver must be removed from a healthy adult to replace the diseased liver of a child will be regenerated in the healthy adult within a few months.
+Which of the following, if true, provides the most additional support for the conclusion drawn above?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(A) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>The success rate of liver transplants is slightly lower in children than in adults.</t>
+    </r>
+  </si>
+  <si>
+    <t>(B) In removing the portion of liver for transplant there is danger of causing damage to the spleen of the donor, and that could necessitate the removal of the spleen.</t>
+  </si>
+  <si>
+    <t>(C) There is less danger that a transplanted organ will be rejected when the organ donor is a close relative of the recipient.</t>
+  </si>
+  <si>
+    <t>(D) There are so few suitable donors that about one-half of the babies with liver disease born in the United States each year die before they can receive a liver transplant.</t>
+  </si>
+  <si>
+    <t>(E)Each lobe of the liver functions separately, and it is possible to extract a portion of one lobe without disrupting critical liver functions.</t>
+  </si>
+  <si>
+    <t>2) Popcorn kernels explode, or "pop," when the moisture inside the kernel is heated and steam builds up pressure inside the kernel. Uniform moisture content in a batch of popcorn kernels ensures uniform popping time, which in turn ensures fewer unpopped kernels. In practice, the percentage of unpopped kernels in a batch can be reduced by sorting popcorn kernels by size.
+Which of the following, if true, best helps explain why the percentage of unpopped kernels is lower when popcorn kernels are of uniform size?</t>
+  </si>
+  <si>
+    <t>(A) The percentage of unpopped kernels can be reduced by increasing cooking time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B) All popcorn kernels, no matter what their size, will pop under proper conditions.
+</t>
+  </si>
+  <si>
+    <t>(C) Yellow popcorn kernels have more moisture content than do white or blue popcorn kernels.</t>
+  </si>
+  <si>
+    <t>(D) A popcorn kernel's moisture content is fully determined by its size.</t>
+  </si>
+  <si>
+    <t>(E) Damaged kernels, another cause of unpopped kernels, have a lower moisture content than intact kernels.</t>
+  </si>
+  <si>
+    <t>3)Two percent of the ocean is coastal ocean-shallow coastal waters in which most fish live. The rest is deep ocean, where less fish live. Much of the garbage burned or dumped on land eventually is deposited in the coastal ocean. To keep coastal ocean free of garbage, therefore, garbage should be dumped in the deep ocean.
+Which of the following. if true, constitutes the strongest basis for criticizing the argument above?</t>
+  </si>
+  <si>
+    <t>(A) Currents far below the ocean's surface bring deep-ocean waters to the coastal ocean.</t>
+  </si>
+  <si>
+    <t>(B) Deep-ocean dumping would require a substantial change in the processing and packaging of waste.</t>
+  </si>
+  <si>
+    <t>(C) Hazardous industrial waste has increasingly been dumped illegally into coastal-ocean waters.</t>
+  </si>
+  <si>
+    <t>(D) There are at present no international agreements regulating dumping in the deep ocean.</t>
+  </si>
+  <si>
+    <t>(E) The few species of fish that inhabit the deep ocean are of no commercial value.</t>
+  </si>
+  <si>
+    <t>4)The early universe contained only the lightest elements, hydrogen and helium. Heavier elements, such as carbon, form only in nuclear reactions in stars and are dispersed when the stars explode. A recently discovered gas cloud contained carbon several billion years ago, when the universe was no more than two billion years old.
+If the statements above are true, which of the following must, on the basis of them, also be true？</t>
+  </si>
+  <si>
+    <t>(A)The earliest stars contained only hydrogen.</t>
+  </si>
+  <si>
+    <t>(B)Some stars were formed before the universe was two billion years old.</t>
+  </si>
+  <si>
+    <t>(C)The carbon in the gas cloud later formed part of some stars.</t>
+  </si>
+  <si>
+    <t>(D)No stars identified to date are as old as the gas cloud.</t>
+  </si>
+  <si>
+    <t>(E)The gas cloud also contained hydrogen and helium.</t>
+  </si>
+  <si>
+    <t>5)Because the number of surgeons is growing faster than the number of operations and because noninvasive medical therapies are increasingly replacing surgery, the average annual number of operations per surgeon has fallen by one-fourth in recent years. It can be concluded that, if these trends continue, a dangerous decline in the level of surgical skill will occur.
+The argument above is based on which of the following assumptions?</t>
+  </si>
+  <si>
+    <t>(A) A surgeon's skill cannot be properly maintained unless the surgeon performs operations with a certain minimum frequency.</t>
+  </si>
+  <si>
+    <t>(B) Surgeons now spend a large percentage of their time performing noninvasive medical procedures.</t>
+  </si>
+  <si>
+    <t>(C) All doctors, but especially surgeons, are receiving poorer training in medical school than they were a few years ago.</t>
+  </si>
+  <si>
+    <t>(D) The level of skill of each individual surgeon has declined in recent years.</t>
+  </si>
+  <si>
+    <t>(E) Some experienced surgeons are now performing a greater number of operations than they used to perform.</t>
+  </si>
+  <si>
+    <t>1)Several critics have claimed that any contemporary poet who writes formal poetry—poetry that is rhymed and metered—is performing a politically conservative act. This is plainly false. Consider Molly Peacock and Marilyn Hacker, two contemporary poets whose poetry is almost exclusively formal and yet who are themselves politically progressive feminists.
+The conclusion drawn above follows logically if which one of the following is assumed?</t>
+  </si>
+  <si>
+    <t>(A) No one who is a feminist is also politically conservative.</t>
+  </si>
+  <si>
+    <t>(B)No poet who writes unrhymed or unmetered poetry is politically conservative.</t>
+  </si>
+  <si>
+    <t>(C)No one who is politically progressive is capable of performing a politically conservative act</t>
+  </si>
+  <si>
+    <t>(D)Anyone who sometimes writes poetry that is not politically conservative never writes poetry that is politically conservative.</t>
+  </si>
+  <si>
+    <t>(E)The content of a poet’s work, not the work’s form, is the most decisive factor in determining what political consequences, if any, the work will have.</t>
+  </si>
+  <si>
+    <t>2) About two million years ago, lava dammed up a river in western Asia and caused a small lake to form. The lake existed for about half a million years. Bones of an early human ancestor were recently found in the ancient lake-bottom sediments that lie on top of the layer of lava. Therefore, ancestors of modern humans lived in western Asia between two million and one-and-a-half million years ago.
+Which one of the following is an assumption required by the argument?</t>
+  </si>
+  <si>
+    <t>(A)There were no other lakes in the immediate area before the lava dammed up the river.</t>
+  </si>
+  <si>
+    <t>(B)The lake contained fish that the human ancestors could have used for food.</t>
+  </si>
+  <si>
+    <t>(C)The lava that lay under the lake-bottom sediments did not contain any human fossil remains.</t>
+  </si>
+  <si>
+    <t>(D)The lake was deep enough that a person could drown in it.</t>
+  </si>
+  <si>
+    <t>(E)The bones were already in the sediments by the time the lake dried up.</t>
+  </si>
+  <si>
+    <t>3)In jurisdictions where use of headlights is optional when visibility is good, drivers who use headlights at all times are less likely to be involved in a collision than are drivers who use headlights only when visibility is poor. Yet Highway Safety Department records show that making use of headlights mandatory at all times does nothing to reduce the overall number of collisions.
+Which one of the following, if true, most helps to resolve the apparent discrepancy in the information above?</t>
+  </si>
+  <si>
+    <t>(A)In jurisdictions where use of headlights is optional when visibility is good, one driver in four uses headlights for daytime driving in good weather.</t>
+  </si>
+  <si>
+    <t>(B)A law making use of headlights mandatory at all times is not especially difficult to enforce.</t>
+  </si>
+  <si>
+    <t>(C)Only very careful drivers use headlights when their use is not legally required.</t>
+  </si>
+  <si>
+    <t>(D)There are some jurisdictions in which it is illegal to use headlights when visibility is good.</t>
+  </si>
+  <si>
+    <t>(E)The jurisdictions where use of headlights is mandatory at all times are those where daytime visibility is frequently poor.</t>
+  </si>
+  <si>
+    <t>4)The Venetian Renaissance painter Vittore Carpaccio used sumptuous reds in most of his paintings. Since the recently discovered Venetian Renaissance painting Erato Declaiming contains notable sumptuous reds, it is probably by Carpaccio.
+Which one of the following contains a pattern of flawed reasoning most similar to that in the argument above?</t>
+  </si>
+  <si>
+    <t>(A)Most Renaissance painters worked in a single medium, either tempera or oil. Since the Renaissance painting Calypso's Bower is in oil, its painter probably always used oil.</t>
+  </si>
+  <si>
+    <t>(B)In Italian Renaissance painting, the single most common subject was the Virgin and Child, so the single most common subject in Western art probably is also the Virgin and Child.</t>
+  </si>
+  <si>
+    <t>(C)Works of art in the Renaissance were mostly commissioned by patrons, so the Renaissance work The Dances of Terpsichore was probably commissioned by a patron.</t>
+  </si>
+  <si>
+    <t>(D)The anonymous painting St. Sebastian is probably an early Florentine painting since it is in tempera, and most early Florentine paintings were in tempera.</t>
+  </si>
+  <si>
+    <t>(E)Since late-Renaissance paintings were mostly in oil, the Venetian late-Renaissance painter Arnoldi, whose works are now lost, probably painted in oil.</t>
+  </si>
+  <si>
+    <t>5)The postal service of Fairfield is badly mismanaged. Thirty years ago, a first-class letter delivery cost only three cents. The price has increased sevenfold since then while the reliability and speed of the delivery have declined.</t>
+  </si>
+  <si>
+    <t>(A)The volume of mail handled by the postal service has increased dramatically over the last thirty years.</t>
+  </si>
+  <si>
+    <t>(B)Unprecedented increases in the cost of fuel for trucks and planes have put severe upward pressures on postal delivery costs.</t>
+  </si>
+  <si>
+    <t>(C) Private delivery services usually charge more than the postal service does for comparable delivery services.</t>
+  </si>
+  <si>
+    <t>(D) The average delivery time for a first-class letter three decades ago was slightly longer than it is today.</t>
+  </si>
+  <si>
+    <t>(E)The average level of consumer prices overall has increased fourfold over the last thirty years.</t>
+  </si>
+  <si>
+    <t>1)Biologists attached a radio transmitter to one of a number of wolves that had been released earlier in the White River Wilderness Area as part of a relocation project. The biologists hoped to use this wolf to track the movements of the whole pack. Wolves usually range over a wide area in search of prey, and frequently follow the migrations of their prey animals. The biologists were surprised to find that this particular wolf never moved more than five miles away from the location in which it was first tagged.
+Which one of the following, if true, would by itself most help to explain the behavior of the wolf tagged by the biologists?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A)The area in which the wolves were released was rocky and mountainous, in contrast to the flat, heavily-wooded area from which they were taken. </t>
+  </si>
+  <si>
+    <t>(B)The wolf had been tagged and released by the biologists only three miles away from a sheep ranch that provided a large, stable population of prey animals.</t>
+  </si>
+  <si>
+    <t>(C)The White River Wilderness Area had supported a population of wolves in past years, but they had been hunted to extinction.</t>
+  </si>
+  <si>
+    <t>(D) Although the wolves in the White River Wilderness Area were under government protection, their numbers had been sharply reduced, within a few years of their release, by illegal hunting.</t>
+  </si>
+  <si>
+    <t>(E)The wolf captured and tagged by the biologists had split off from the main pack whose movements the biologists had hoped to study, and its movements did not represent those of the main pack.</t>
+  </si>
+  <si>
+    <t>2)As any economist knows, healthy people pose less of an economic burden to society than unhealthy people. Not surprisingly, then, every dollar our state government spends on prenatal care for undocumented immigrants will save taxpayers of this state three dollars.
+Which of the following, if true, would best explain why the statistics cited above are not surprising?</t>
+  </si>
+  <si>
+    <t>(A)The state’s taxpayers pay for prenatal care of all immigrants.</t>
+  </si>
+  <si>
+    <t>(B)Babies born in this state to undocumented immigrant parents are entitled to infant care benefits from the state.</t>
+  </si>
+  <si>
+    <t>(C)State benefits for prenatal care serve to promote undocumented immigration.</t>
+  </si>
+  <si>
+    <t>(D)Babies whose mothers did not receive prenatal care.are just as healthy as other babies.</t>
+  </si>
+  <si>
+    <t>(E)Pregnant women who do not receive prenatal care are more likely to experience health problems than other pregnant women.</t>
+  </si>
+  <si>
+    <t>3)Beautiful beaches attract people, no doubt about it. Just look at this city’s beautiful beaches, which are among the most overcrowded beaches in Florida.
+Which of the following exhibits a pattern of reasoning most similar to the one exhibited in the argument above?</t>
+  </si>
+  <si>
+    <t>(A)Moose and bear usually appear at the same drinking hole at the same time of day. Therefore, moose and bear must grow thirsty at about the same time.</t>
+  </si>
+  <si>
+    <t>(B)Children who are scolded severely tend to misbehave.more often than other children. Hence if a child is not scolded severely that child is less likely to misbehave.</t>
+  </si>
+  <si>
+    <t>(C)This software program helps increase the work efficiency of its users. As a result, these users have more free time for other activities.</t>
+  </si>
+  <si>
+    <t>(D)During warm weather, my dog suffers from fleas more so than during cooler weather. Therefore, fleas must thrive in a warm environment.</t>
+  </si>
+  <si>
+    <t>(E)Pesticides are known to cause anemia in some people. However, most anemic people live in regions where pesticides are not commonly used.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4)Two things are true of all good deeds. First, they are accompanied by feelings of satisfaction. Second, if they are publicly known, they elicit general approval.
+If all of the above statements are true, then which of the following cannot also be true?
+</t>
+  </si>
+  <si>
+    <t>(A)Some publicly known deeds that elicit general approval are not accompanied by feelings of satisfaction.</t>
+  </si>
+  <si>
+    <t>(B)Even if they frequently elicit general approval when known publicly, some deeds that are accompanied by feelings of satisfaction are not good deeds.</t>
+  </si>
+  <si>
+    <t>(C)Good deeds are good solely because they are accompanied by feelings of satisfaction.</t>
+  </si>
+  <si>
+    <t>(D)Every publicly known act that is accompanied by feelings of satisfaction is a good deed.</t>
+  </si>
+  <si>
+    <t>5)Many home renters buy their first homes believing that it is clearly more profitable to make mortgage payments than to pay rent. Other costs, such as maintenance, property taxes, and insurance must be factored in, however. All housing expenses together total at least 40% of most homeowners' income.  It is not financially reasonable to spend any more than 30% of income on housing expenses.</t>
+  </si>
+  <si>
+    <t>(E)Good deeds are good solely because they are accompanied by feelings of satisfaction.</t>
+  </si>
+  <si>
+    <t>(A)A minority of homeowners have reasonable housing expenses</t>
+  </si>
+  <si>
+    <t>(B)A majority of renters pay an unreasonable amount for housing expenses</t>
+  </si>
+  <si>
+    <t>(C)A majority of homeowners have unreasonable housing expenses</t>
+  </si>
+  <si>
+    <t>(D)A minority of homeowners have unreasonable housing expenses</t>
+  </si>
+  <si>
+    <t>(E)The combination of property taxes, insurance, and home maintenance costs is greater than mortgage payments for a minority of homeowners</t>
+  </si>
+  <si>
+    <t>1)The price of a barrel of crude oil fell by 15 percent over the last month. Economists point to several causes, including the discovery of new reserves of oil, the increased accessibility of alternative sources of fuel, the growth of mass transit, the decline of car sales, and the increase in non-fuel-consuming means of transportation, such as bicycles, over the same time frame.
+Which of the following does the above argument NOT imply?</t>
+  </si>
+  <si>
+    <t>(A)The discovery of new reserves of oil has increased the supply, created a surplus, and thus driven the price of oil down.</t>
+  </si>
+  <si>
+    <t>(B)People are more likely to purchase new cars if the price of oil is low.</t>
+  </si>
+  <si>
+    <t>(C)If they have access to both, some people would rather use alternative sources of fuel instead of oil.</t>
+  </si>
+  <si>
+    <t>(D)The growth of mass transit systems, which transport more people and use less fuel, has reduced demand for oil and driven the price of oil down.</t>
+  </si>
+  <si>
+    <t>(E)The increased accessibility of alternative sources of fuel has reduced the demand for oil and thus driven the price of a barrel of crude oil down.</t>
+  </si>
+  <si>
+    <t>2)Given
+Fewer people go without email with each passing year. Not only are younger and younger children signing up for their own accounts, but the generation that was largely too old and out of touch to have ever had an account is slowly dying. It is entirely likely that no one over the age of 10 will be without an email account within the next ten years.
+Which of the following statements cannot be true based on the above statement?</t>
+  </si>
+  <si>
+    <t>(A)Email is a pervasive form of communication that is used by many different people.</t>
+  </si>
+  <si>
+    <t>(B)Email is used differently by specific age groups, leading to a diverse pattern of email usage.</t>
+  </si>
+  <si>
+    <t>(C)Many younger people use many more communication methods than strictly email.</t>
+  </si>
+  <si>
+    <t>(D)Older generations are much more likely than younger ones to adopt new forms of communication.</t>
+  </si>
+  <si>
+    <t>(E)Older generations find email to be an awkward form of communication compared to letters and the telephone.</t>
+  </si>
+  <si>
+    <t>3)While tablet computer sales have increased steadily over the last 2 years, we can expect a reversal of this trend in the near future. Since they became popular in the marketplace 5 years ago, 60 percent of tablet computers sold have been purchased by people from 18 to 25 years of age, and the number of people in this age group is expected to decline steadily over the next 15 years.
+Which of the following, if true, would most seriously weaken the argument?</t>
+  </si>
+  <si>
+    <t>(A)The number of different types of tablet computers available is likely to increase in the near future.</t>
+  </si>
+  <si>
+    <t>(B) New technology will make new computing options available over the next 15 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C)Sales of tablet computers to small businesses has declined over the past 2 years.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(D)Most purchasers of tablet computers over the past 2 years have been over the age of 25.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E)Most people under the age of 18 have never purchased a tablet computer.
+</t>
+  </si>
+  <si>
+    <t>4)Those who go to college are wasting their money. The vast majority of college graduates are employed in fields that do not require their specializations, while others are unemployed. Further, contrary to common belief, the average college graduate is not paid substantially more than the average worker who is not a college graduate.
+Which of the following, if true, most weakens the argument?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A)There are more college graduates now than at any other time in history
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B)College graduates are more likely to be employed than those who are not college graduates
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C)Certain professions highly prefer or require a college degree as a condition of employment, while no employers prefer an employee not be a college graduate
+</t>
+  </si>
+  <si>
+    <t>(D)Very few college graduates say they regret attending college</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E)The average college graduate has more debt than the average non graduate
+</t>
+  </si>
+  <si>
+    <t>5)Cities benefit from hosting major sporting events, such as bowl games and major basketball tournaments, but hosting these events also presents challenges. Visitors provide business for hotels, restaurants, and stores, supporting those businesses and increasing tax revenue. On the other hand, with the influx of tourists, police forces and hospitals are often understaffed. Historically, these cities have been able to obtain enough outside workers to sufficiently meet their temporary staffing needs. For that reason, the benefits outweigh the challenges for the cities scheduled to host the next major sporting events.
+Which of the following, if true, most undermines the argument?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A)Increased tourism is not a critical need for the cities hosting the next major sporting events
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B)There are expected to be more tourists at future major sporting events than there have been at past events
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C)The cities that will be hosting the next major sporting events are remote and will not be able to obtain any outside workers
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(D)The businesses in the next cities hosting major sporting events do not require new customers
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E)The next cities to host major sporting events have larger police forces and hospital staffs than cities that have hosted the events in the past
+</t>
+  </si>
+  <si>
+    <t>1)Modern workers are less competent than workers of the past.  This fact likely comes as a surprise to some because standards are higher than ever.  Employers demand higher degrees than before and more workers have bachelor's and master's degrees than at any other time.  Higher degrees do not mean more competent workers, however.  Recent evidence indicates that modern workers have poor writing ability, lack focus, and are inept at personal communication.
+Which of the following, if true, most undermines the argument?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A)Modern workers generally work more hours than workers in the past
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B)Workers of the past often obtained bachelor's and master's degrees
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C)Workers of the past had poor writing ability, lacked focus, and were inept at personal communication
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(D)In the past, it was often more difficult to obtain a bachelor's or master's degree
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E)Modern workers are dismissed from their jobs less frequently than at any other time
+</t>
+  </si>
+  <si>
+    <t>5)Foreign trade with other countries will improve quickly if we amend the Constitution so that the President can execute trade agreements with other countries without the current rule requiring a 2/3 approval of the Senate. This is because obtaining a 2/3 vote in the Senate allows extensive debate regarding the merits of a prospective trade agreement, but the process to obtain this 2/3 vote is extremely slow and cumbersome. 
+Which one of the following, if true, most seriously weakens the argument?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A)Companies make decisions based on proposed free-trade agreements.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B)The process to obtain a 2/3 vote in the Senate, which consists of thorough research and deliberation, prevents the implementation of trade agreements that would have negative effects on trade. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C)Some improvements in trade are due to other factors besides trade agreements.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(D)Most senators would refuse to support an amendment to the Constitution that would limit their power.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E)Some senators are willing to support a proposed trade agreement if a President from the same political party negotiates it.
+</t>
+  </si>
+  <si>
+    <t>3)Environmental activists who primarily focus on reducing carbon emissions are misguided. There are many environmental issues that should be of great concern, including some that present more serious challenges than carbon emissions.  Water pollution, for example, has devastating results on the environment.  Activists who primarily focus on carbon emissions apparently do not recognize that water pollution and other issues cause damage to the environment.
+Which of the following, if true, most seriously weakens the argument?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A)Some environmental activists focus attention on both water pollution and carbon emissions
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B)Some environmental concerns pose greater dangers than both water pollution and carbon emissions
+</t>
+  </si>
+  <si>
+    <t>(C)Some environmental activists primarily focus on reducing carbon emissions because there is greater opportunity for progress in that area than in others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(D)For many years, carbon emissions did pose a more serious threat to the environment than did water pollution
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E)Most environmental activists primarily focus on water pollution
+</t>
+  </si>
+  <si>
+    <t>4)TV networks believe that football broadcasts provide greater opportunity for profit than any other sport. This belief persists despite the fact that professional baseball leagues have increased their revenue by fifty percent over the last ten years while professional football leagues have increased revenue by only fifteen percent over that time.  
+Which of the following statements, if true, would most help to reconcile the TV networks' beliefs with the statistics cited?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A)Baseball has been popular for many years while football's increase in popularity has come primarily in the last thirty years
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B)In the last ten years, football has gained more TV revenue than baseball despite baseball leagues gaining more revenue for their respective league.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C)Baseball leagues have significantly longer seasons than football leagues
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(D)Many TV networks purchase broadcasting rights to only one sport
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E)Football and baseball leagues attract different types of advertisers
+</t>
+  </si>
+  <si>
+    <t>2)Under the modern model for music distribution, musicians sell the right to broadcast their music to companies who give listeners affordable access to large quantities of music.  Some musicians who have been selling their music for many years are displeased with the new model and have seen decreased revenue.  Yet, musicians as a whole are making more money under the new model than they were previously.
+Which of the following, if true, would most help to reconcile the apparent conflict?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A)Some musicians want to make more money than they made under the old model
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B)Music producers charge higher fees now, leaving less revenue for musicians
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C)A greater number of musicians sell music now than under the old model
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(D)The new model is not generating as much revenue as it could be generating
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E)The old model could be used now and would generate more revenue than the new model
+</t>
+  </si>
+  <si>
+    <t>LSATAs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -868,6 +1763,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A2A2A"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -890,7 +1797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -912,6 +1819,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1193,787 +2102,1707 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
+    <col min="4" max="6" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="96.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
         <v>165</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>166</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>167</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>168</v>
       </c>
-      <c r="F1" t="s">
-        <v>169</v>
-      </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" t="s">
         <v>159</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>160</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>161</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>162</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>163</v>
       </c>
-      <c r="N1" t="s">
-        <v>164</v>
-      </c>
       <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>212</v>
+      </c>
+      <c r="R1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V1" t="s">
-        <v>1</v>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="P2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R2" t="s">
+        <v>184</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="T2" t="s">
+        <v>186</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
+    <row r="3" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="I2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J2" t="s">
-        <v>179</v>
-      </c>
-      <c r="K2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L2" t="s">
-        <v>181</v>
-      </c>
-      <c r="M2" t="s">
-        <v>182</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="P2" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="R2" t="s">
-        <v>186</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="T2" t="s">
-        <v>188</v>
-      </c>
-      <c r="U2" s="4" t="s">
+      <c r="H4" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="O4" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="P4" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>195</v>
+      </c>
+      <c r="R4" t="s">
+        <v>196</v>
+      </c>
+      <c r="S4" t="s">
+        <v>197</v>
+      </c>
+      <c r="T4" t="s">
+        <v>198</v>
+      </c>
+      <c r="U4" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
+    <row r="5" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="H5" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="P5" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>201</v>
+      </c>
+      <c r="R5" t="s">
+        <v>202</v>
+      </c>
+      <c r="S5" t="s">
+        <v>203</v>
+      </c>
+      <c r="T5" t="s">
+        <v>204</v>
+      </c>
+      <c r="U5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="P6" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="R6" t="s">
+        <v>208</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="T6" t="s">
+        <v>210</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="U3" s="4" t="s">
+      <c r="H8" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="U9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" t="s">
+    <row r="10" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="U11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="P4" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>197</v>
-      </c>
-      <c r="R4" t="s">
-        <v>198</v>
-      </c>
-      <c r="S4" t="s">
-        <v>199</v>
-      </c>
-      <c r="T4" t="s">
-        <v>200</v>
-      </c>
-      <c r="U4" t="s">
-        <v>93</v>
-      </c>
     </row>
-    <row r="5" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
+    <row r="12" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="U15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="P5" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>203</v>
-      </c>
-      <c r="R5" t="s">
-        <v>204</v>
-      </c>
-      <c r="S5" t="s">
-        <v>205</v>
-      </c>
-      <c r="T5" t="s">
-        <v>206</v>
-      </c>
-      <c r="U5" t="s">
+    </row>
+    <row r="16" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="H18" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
+    <row r="19" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="N19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="P6" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="R6" t="s">
-        <v>210</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="T6" t="s">
-        <v>212</v>
+      <c r="O19" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
+    <row r="20" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="H23" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>19</v>
+    <row r="24" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>93</v>
+    <row r="25" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="330" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="3" t="s">
+    <row r="26" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="U26" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="285" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="395.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="360" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="229.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="405" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="293.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="300" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="270" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="360" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="240" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" t="s">
-        <v>139</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="210" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="285" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" t="s">
-        <v>152</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="255" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E26" t="s">
-        <v>157</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">

--- a/AcademicSelf-Regulation/QuestionsText.xlsx
+++ b/AcademicSelf-Regulation/QuestionsText.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="476">
   <si>
     <t>GRE</t>
   </si>
@@ -2105,7 +2105,7 @@
   <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:AA1"/>
+      <selection activeCell="L5" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,6 +2116,7 @@
     <col min="7" max="7" width="29.42578125" customWidth="1"/>
     <col min="8" max="8" width="96.28515625" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="66.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -2482,6 +2483,9 @@
       </c>
       <c r="M6" s="3" t="s">
         <v>295</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>205</v>
